--- a/untidy_excel/nurse_social_var.xlsx
+++ b/untidy_excel/nurse_social_var.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/oma55_pitt_edu/Documents/Desktop/ICE/ice-nig 4 DS/FastTrack/sounds/bnew_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oamon\Oluwasegun DS Project\Sociophonetic-study-of-NURSE-vowels-in-NE\untidy_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0F9F4E-88CE-4D7E-8F65-0C9004289E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF67F80-AA8F-4CF2-9094-93391DDD251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{C5F8D0A1-98C0-43F1-94C7-454371B62371}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Gender</t>
   </si>
@@ -71,9 +71,6 @@
     <t>bnew_03</t>
   </si>
   <si>
-    <t>TV  presenter</t>
-  </si>
-  <si>
     <t>bnew_04</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>bnew_05</t>
   </si>
   <si>
-    <t>TV  journalist</t>
-  </si>
-  <si>
     <t>bnew_06</t>
   </si>
   <si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>files</t>
+  </si>
+  <si>
+    <t>TV presenter</t>
   </si>
 </sst>
 </file>
@@ -503,7 +500,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -513,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -573,40 +570,40 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -618,68 +615,68 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -693,44 +690,44 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>53</v>
@@ -739,15 +736,15 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>42</v>
@@ -761,10 +758,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>46</v>
@@ -773,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
